--- a/00_Final/Results/Spiral.xlsx
+++ b/00_Final/Results/Spiral.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pppp8\Documents\HTo_GA\00_Final\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04385A29-485D-49D2-A07D-14EAA5DA8874}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CC85D-6FB8-4C6F-B832-64C8AA06DB27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1200" windowWidth="26685" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAresult0" sheetId="1" r:id="rId1"/>
@@ -2590,15 +2590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>2672722</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2807193</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>10088506</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>3212</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3586</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3225,7 +3225,7 @@
   <dimension ref="A1:BE44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS29" sqref="AS29"/>
+      <selection activeCell="BB1" sqref="BB1:BE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
